--- a/Code/Results/Cases/Case_0_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009910183086256</v>
+        <v>1.048015423470132</v>
       </c>
       <c r="D2">
-        <v>1.02453929200211</v>
+        <v>1.057568649418278</v>
       </c>
       <c r="E2">
-        <v>1.014753943798414</v>
+        <v>1.045403463593746</v>
       </c>
       <c r="F2">
-        <v>1.030585040807424</v>
+        <v>1.065002389984858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052849331891835</v>
+        <v>1.041936920771309</v>
       </c>
       <c r="J2">
-        <v>1.03179846930715</v>
+        <v>1.0530614208751</v>
       </c>
       <c r="K2">
-        <v>1.03566702207254</v>
+        <v>1.060303261787828</v>
       </c>
       <c r="L2">
-        <v>1.026011489299421</v>
+        <v>1.048171800965032</v>
       </c>
       <c r="M2">
-        <v>1.041634107878821</v>
+        <v>1.067716804637489</v>
       </c>
       <c r="N2">
-        <v>1.013844554974046</v>
+        <v>1.021441961726428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01633364014086</v>
+        <v>1.049313685056023</v>
       </c>
       <c r="D3">
-        <v>1.030441880016516</v>
+        <v>1.058810059735478</v>
       </c>
       <c r="E3">
-        <v>1.020041636825482</v>
+        <v>1.04651783024909</v>
       </c>
       <c r="F3">
-        <v>1.036787527378725</v>
+        <v>1.066311600093681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05492175583241</v>
+        <v>1.042243630574246</v>
       </c>
       <c r="J3">
-        <v>1.036388725125103</v>
+        <v>1.054006676621121</v>
       </c>
       <c r="K3">
-        <v>1.040699522079773</v>
+        <v>1.061357448459393</v>
       </c>
       <c r="L3">
-        <v>1.030424345780899</v>
+        <v>1.049096812363054</v>
       </c>
       <c r="M3">
-        <v>1.046970385832204</v>
+        <v>1.068840093995745</v>
       </c>
       <c r="N3">
-        <v>1.015426384273413</v>
+        <v>1.021762703747757</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020377955996932</v>
+        <v>1.050152914912211</v>
       </c>
       <c r="D4">
-        <v>1.034163111362515</v>
+        <v>1.059612784708318</v>
       </c>
       <c r="E4">
-        <v>1.023376963880086</v>
+        <v>1.047238488577917</v>
       </c>
       <c r="F4">
-        <v>1.040698034894722</v>
+        <v>1.067158218374367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056210241871202</v>
+        <v>1.042439875891033</v>
       </c>
       <c r="J4">
-        <v>1.039274375310063</v>
+        <v>1.054617005341316</v>
       </c>
       <c r="K4">
-        <v>1.043865986764236</v>
+        <v>1.062038466008293</v>
       </c>
       <c r="L4">
-        <v>1.033201204608194</v>
+        <v>1.049694360622176</v>
       </c>
       <c r="M4">
-        <v>1.05032888276221</v>
+        <v>1.069565859417402</v>
       </c>
       <c r="N4">
-        <v>1.016420133374171</v>
+        <v>1.021969629437224</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022052661513126</v>
+        <v>1.05050553150476</v>
       </c>
       <c r="D5">
-        <v>1.035705141061992</v>
+        <v>1.059950121334191</v>
       </c>
       <c r="E5">
-        <v>1.024759479048255</v>
+        <v>1.047541357146119</v>
       </c>
       <c r="F5">
-        <v>1.042318553221125</v>
+        <v>1.067514013297792</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056739805741991</v>
+        <v>1.042521847636005</v>
       </c>
       <c r="J5">
-        <v>1.040468169709835</v>
+        <v>1.05487327507446</v>
       </c>
       <c r="K5">
-        <v>1.045176629546019</v>
+        <v>1.062324502186465</v>
       </c>
       <c r="L5">
-        <v>1.034350641618011</v>
+        <v>1.049945333618794</v>
       </c>
       <c r="M5">
-        <v>1.051719225518244</v>
+        <v>1.069870715846305</v>
       </c>
       <c r="N5">
-        <v>1.016831076662269</v>
+        <v>1.022056474282534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022332391469699</v>
+        <v>1.050564726013959</v>
       </c>
       <c r="D6">
-        <v>1.035962773539105</v>
+        <v>1.06000675415845</v>
       </c>
       <c r="E6">
-        <v>1.024990483745635</v>
+        <v>1.047592204537167</v>
       </c>
       <c r="F6">
-        <v>1.042589302459584</v>
+        <v>1.067573745683031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056828024009594</v>
+        <v>1.04253558000975</v>
       </c>
       <c r="J6">
-        <v>1.040667504572274</v>
+        <v>1.054916285635223</v>
       </c>
       <c r="K6">
-        <v>1.045395515101666</v>
+        <v>1.062372513535571</v>
       </c>
       <c r="L6">
-        <v>1.034542607928565</v>
+        <v>1.049987459295116</v>
       </c>
       <c r="M6">
-        <v>1.051951434146947</v>
+        <v>1.069921887686152</v>
       </c>
       <c r="N6">
-        <v>1.016899683877396</v>
+        <v>1.022071047331631</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020400432126969</v>
+        <v>1.050157627356652</v>
       </c>
       <c r="D7">
-        <v>1.034183802540266</v>
+        <v>1.059617292720002</v>
       </c>
       <c r="E7">
-        <v>1.023395513116743</v>
+        <v>1.047242535897678</v>
       </c>
       <c r="F7">
-        <v>1.04071977901988</v>
+        <v>1.067162973004654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056217364957127</v>
+        <v>1.042440973282186</v>
       </c>
       <c r="J7">
-        <v>1.039290401659866</v>
+        <v>1.054620430854901</v>
       </c>
       <c r="K7">
-        <v>1.04388357909258</v>
+        <v>1.062042289070323</v>
       </c>
       <c r="L7">
-        <v>1.033216632908494</v>
+        <v>1.049697715061455</v>
       </c>
       <c r="M7">
-        <v>1.050347544024706</v>
+        <v>1.069569933923961</v>
       </c>
       <c r="N7">
-        <v>1.016425650863114</v>
+        <v>1.021970790437895</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012105049089986</v>
+        <v>1.04845435153142</v>
       </c>
       <c r="D8">
-        <v>1.026555118672272</v>
+        <v>1.057988305549838</v>
       </c>
       <c r="E8">
-        <v>1.016559392506152</v>
+        <v>1.045780155596787</v>
       </c>
       <c r="F8">
-        <v>1.032703247037698</v>
+        <v>1.065444954880919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053560875016976</v>
+        <v>1.042041034217436</v>
       </c>
       <c r="J8">
-        <v>1.033367843411736</v>
+        <v>1.05338114816463</v>
       </c>
       <c r="K8">
-        <v>1.037387008085781</v>
+        <v>1.060659760836748</v>
       </c>
       <c r="L8">
-        <v>1.027519632556058</v>
+        <v>1.048484620415437</v>
       </c>
       <c r="M8">
-        <v>1.043457729709218</v>
+        <v>1.068096650352124</v>
       </c>
       <c r="N8">
-        <v>1.014385502915012</v>
+        <v>1.021550485944116</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9965647439563706</v>
+        <v>1.045446426628395</v>
       </c>
       <c r="D9">
-        <v>1.01230597547504</v>
+        <v>1.05511347761806</v>
       </c>
       <c r="E9">
-        <v>1.003805787785072</v>
+        <v>1.043199999902101</v>
       </c>
       <c r="F9">
-        <v>1.01773108358254</v>
+        <v>1.062413404458105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048455273218135</v>
+        <v>1.041319277211515</v>
       </c>
       <c r="J9">
-        <v>1.022239395907035</v>
+        <v>1.051187197005056</v>
       </c>
       <c r="K9">
-        <v>1.025202502822108</v>
+        <v>1.05821494000093</v>
       </c>
       <c r="L9">
-        <v>1.016837419045195</v>
+        <v>1.046339267865984</v>
       </c>
       <c r="M9">
-        <v>1.030542890498437</v>
+        <v>1.065492159221481</v>
       </c>
       <c r="N9">
-        <v>1.010547296860215</v>
+        <v>1.020805106532351</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9854846029536463</v>
+        <v>1.043436520855155</v>
       </c>
       <c r="D10">
-        <v>1.002179710898141</v>
+        <v>1.05319382259821</v>
       </c>
       <c r="E10">
-        <v>0.9947543058922793</v>
+        <v>1.0414775597912</v>
       </c>
       <c r="F10">
-        <v>1.007091571409139</v>
+        <v>1.060389363028451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044731548590874</v>
+        <v>1.040826611915677</v>
       </c>
       <c r="J10">
-        <v>1.014286202779877</v>
+        <v>1.049717570127654</v>
       </c>
       <c r="K10">
-        <v>1.016509721201337</v>
+        <v>1.056579093869964</v>
       </c>
       <c r="L10">
-        <v>1.009218923319683</v>
+        <v>1.044903701172663</v>
       </c>
       <c r="M10">
-        <v>1.021333955043144</v>
+        <v>1.063750026184927</v>
       </c>
       <c r="N10">
-        <v>1.007801853425565</v>
+        <v>1.02030494731332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9804905461688673</v>
+        <v>1.042565061419853</v>
       </c>
       <c r="D11">
-        <v>0.9976246467774477</v>
+        <v>1.052361813343167</v>
       </c>
       <c r="E11">
-        <v>0.9906859662107361</v>
+        <v>1.040731136272077</v>
       </c>
       <c r="F11">
-        <v>1.002305674417607</v>
+        <v>1.059512172916582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0430344097941</v>
+        <v>1.040610543277962</v>
       </c>
       <c r="J11">
-        <v>1.010698082677369</v>
+        <v>1.049079512558034</v>
       </c>
       <c r="K11">
-        <v>1.012591498239212</v>
+        <v>1.055869302210121</v>
       </c>
       <c r="L11">
-        <v>1.005785695397214</v>
+        <v>1.044280788876923</v>
       </c>
       <c r="M11">
-        <v>1.017184239693959</v>
+        <v>1.062994246877359</v>
       </c>
       <c r="N11">
-        <v>1.00656287595543</v>
+        <v>1.020087593790648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9786035805211478</v>
+        <v>1.042241184209951</v>
       </c>
       <c r="D12">
-        <v>0.9959050216571194</v>
+        <v>1.05205264630125</v>
       </c>
       <c r="E12">
-        <v>0.9891506178800948</v>
+        <v>1.040453788850962</v>
       </c>
       <c r="F12">
-        <v>1.000498902404029</v>
+        <v>1.059186226309634</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042390434444549</v>
+        <v>1.040529872713435</v>
       </c>
       <c r="J12">
-        <v>1.009341914569685</v>
+        <v>1.048842251185383</v>
       </c>
       <c r="K12">
-        <v>1.011111097762437</v>
+        <v>1.055605431393658</v>
       </c>
       <c r="L12">
-        <v>1.004488669133805</v>
+        <v>1.044049213029625</v>
       </c>
       <c r="M12">
-        <v>1.015616550469037</v>
+        <v>1.062713299309183</v>
       </c>
       <c r="N12">
-        <v>1.00609455641912</v>
+        <v>1.020006740675637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9790098294692119</v>
+        <v>1.042310665116077</v>
       </c>
       <c r="D13">
-        <v>0.9962751752456742</v>
+        <v>1.052118969250421</v>
       </c>
       <c r="E13">
-        <v>0.9894810808835526</v>
+        <v>1.040513285048304</v>
       </c>
       <c r="F13">
-        <v>1.00088781486536</v>
+        <v>1.059256148418232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042529198673779</v>
+        <v>1.040547195534262</v>
       </c>
       <c r="J13">
-        <v>1.009633904551447</v>
+        <v>1.048893156296928</v>
       </c>
       <c r="K13">
-        <v>1.011429811562502</v>
+        <v>1.05566204270575</v>
       </c>
       <c r="L13">
-        <v>1.004767898303686</v>
+        <v>1.044098895862161</v>
       </c>
       <c r="M13">
-        <v>1.015954048672683</v>
+        <v>1.062773573414438</v>
       </c>
       <c r="N13">
-        <v>1.00619538928473</v>
+        <v>1.020024089313857</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9803352360073895</v>
+        <v>1.042538293293849</v>
       </c>
       <c r="D14">
-        <v>0.9974830793815631</v>
+        <v>1.052336260004254</v>
       </c>
       <c r="E14">
-        <v>0.9905595583496949</v>
+        <v>1.040708212552029</v>
       </c>
       <c r="F14">
-        <v>1.002156932806391</v>
+        <v>1.059485232521713</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042981460924179</v>
+        <v>1.040603883457062</v>
       </c>
       <c r="J14">
-        <v>1.01058646883235</v>
+        <v>1.049059905747654</v>
       </c>
       <c r="K14">
-        <v>1.012469649147529</v>
+        <v>1.055847495126178</v>
       </c>
       <c r="L14">
-        <v>1.005678936746371</v>
+        <v>1.044261650810504</v>
       </c>
       <c r="M14">
-        <v>1.017055202475012</v>
+        <v>1.062971028120706</v>
       </c>
       <c r="N14">
-        <v>1.006524333433537</v>
+        <v>1.0200809128666</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9811475506048702</v>
+        <v>1.042678518753943</v>
       </c>
       <c r="D15">
-        <v>0.9982235760430319</v>
+        <v>1.052470123764449</v>
       </c>
       <c r="E15">
-        <v>0.9912207817828809</v>
+        <v>1.040828301473987</v>
       </c>
       <c r="F15">
-        <v>1.002934955462951</v>
+        <v>1.059626362892819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043258287768063</v>
+        <v>1.040638755987686</v>
       </c>
       <c r="J15">
-        <v>1.011170223050218</v>
+        <v>1.049162611257623</v>
       </c>
       <c r="K15">
-        <v>1.013106956654895</v>
+        <v>1.055961728888018</v>
       </c>
       <c r="L15">
-        <v>1.006237322131837</v>
+        <v>1.044361903120169</v>
       </c>
       <c r="M15">
-        <v>1.017730113165605</v>
+        <v>1.063092657558078</v>
       </c>
       <c r="N15">
-        <v>1.006725914290051</v>
+        <v>1.020115908022937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9858117027258172</v>
+        <v>1.043494331983817</v>
       </c>
       <c r="D16">
-        <v>1.002478254388495</v>
+        <v>1.05324902343968</v>
       </c>
       <c r="E16">
-        <v>0.9950210198020168</v>
+        <v>1.041527084657031</v>
       </c>
       <c r="F16">
-        <v>1.007405244002934</v>
+        <v>1.06044756275586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044842326160221</v>
+        <v>1.040840893821058</v>
       </c>
       <c r="J16">
-        <v>1.014521152978216</v>
+        <v>1.049759879841278</v>
       </c>
       <c r="K16">
-        <v>1.01676636024834</v>
+        <v>1.056626169372291</v>
       </c>
       <c r="L16">
-        <v>1.009443812966227</v>
+        <v>1.044945014130006</v>
       </c>
       <c r="M16">
-        <v>1.021605780662311</v>
+        <v>1.063800154462949</v>
       </c>
       <c r="N16">
-        <v>1.007882975849679</v>
+        <v>1.020319355808283</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9886831984808941</v>
+        <v>1.044005757109616</v>
       </c>
       <c r="D17">
-        <v>1.005100101102953</v>
+        <v>1.053737393614402</v>
       </c>
       <c r="E17">
-        <v>0.9973637083647798</v>
+        <v>1.04196525131142</v>
       </c>
       <c r="F17">
-        <v>1.010159959892982</v>
+        <v>1.060962471664181</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045812691670629</v>
+        <v>1.04096695477242</v>
       </c>
       <c r="J17">
-        <v>1.016583320199106</v>
+        <v>1.050134073503079</v>
       </c>
       <c r="K17">
-        <v>1.019019294123255</v>
+        <v>1.05704256225098</v>
       </c>
       <c r="L17">
-        <v>1.011418119757902</v>
+        <v>1.045310433583154</v>
       </c>
       <c r="M17">
-        <v>1.023992162830988</v>
+        <v>1.064243564807592</v>
       </c>
       <c r="N17">
-        <v>1.008594952305573</v>
+        <v>1.020446763382046</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9903393351186682</v>
+        <v>1.044303951411756</v>
       </c>
       <c r="D18">
-        <v>1.006613098262168</v>
+        <v>1.054022176091502</v>
       </c>
       <c r="E18">
-        <v>0.998715915410017</v>
+        <v>1.042220769248088</v>
       </c>
       <c r="F18">
-        <v>1.011749636629993</v>
+        <v>1.061262735600708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046370575329161</v>
+        <v>1.041040219577958</v>
       </c>
       <c r="J18">
-        <v>1.017772345197423</v>
+        <v>1.05035217057334</v>
       </c>
       <c r="K18">
-        <v>1.020318649089248</v>
+        <v>1.057285296579102</v>
       </c>
       <c r="L18">
-        <v>1.012556850699493</v>
+        <v>1.045523451092435</v>
       </c>
       <c r="M18">
-        <v>1.025368591971163</v>
+        <v>1.064502061384032</v>
       </c>
       <c r="N18">
-        <v>1.009005435831205</v>
+        <v>1.020521002747647</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990900923520723</v>
+        <v>1.044405609217629</v>
       </c>
       <c r="D19">
-        <v>1.007126289105722</v>
+        <v>1.05411926684693</v>
       </c>
       <c r="E19">
-        <v>0.9991746186883051</v>
+        <v>1.042307884639445</v>
       </c>
       <c r="F19">
-        <v>1.012288837276894</v>
+        <v>1.061365105457902</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046559447293091</v>
+        <v>1.041065156169903</v>
       </c>
       <c r="J19">
-        <v>1.018175479401717</v>
+        <v>1.050426508353206</v>
       </c>
       <c r="K19">
-        <v>1.02075924726567</v>
+        <v>1.057368038964752</v>
       </c>
       <c r="L19">
-        <v>1.012942994494947</v>
+        <v>1.045596063359714</v>
       </c>
       <c r="M19">
-        <v>1.025835343763487</v>
+        <v>1.064590178874484</v>
       </c>
       <c r="N19">
-        <v>1.009144602166496</v>
+        <v>1.020546303706603</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9883770713280615</v>
+        <v>1.043950897582531</v>
       </c>
       <c r="D20">
-        <v>1.004820500173421</v>
+        <v>1.053685003962379</v>
       </c>
       <c r="E20">
-        <v>0.9971138457294865</v>
+        <v>1.041918246121736</v>
       </c>
       <c r="F20">
-        <v>1.009866189038891</v>
+        <v>1.060907234466237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045709425771203</v>
+        <v>1.040953456984218</v>
       </c>
       <c r="J20">
-        <v>1.016363508466664</v>
+        <v>1.050093943026393</v>
       </c>
       <c r="K20">
-        <v>1.018779113206336</v>
+        <v>1.056997901803204</v>
       </c>
       <c r="L20">
-        <v>1.011207635239503</v>
+        <v>1.045271240533974</v>
       </c>
       <c r="M20">
-        <v>1.023737743890678</v>
+        <v>1.06419600528938</v>
       </c>
       <c r="N20">
-        <v>1.008519064399594</v>
+        <v>1.020433101552833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9799458399774363</v>
+        <v>1.042471267429663</v>
       </c>
       <c r="D21">
-        <v>0.9971281634720219</v>
+        <v>1.052272276683894</v>
       </c>
       <c r="E21">
-        <v>0.9902426567341095</v>
+        <v>1.04065081383814</v>
       </c>
       <c r="F21">
-        <v>1.001784030732177</v>
+        <v>1.059417776283679</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042848663212781</v>
+        <v>1.040587201688674</v>
       </c>
       <c r="J21">
-        <v>1.010306622378665</v>
+        <v>1.049010809347832</v>
       </c>
       <c r="K21">
-        <v>1.012164148704277</v>
+        <v>1.055792890182</v>
       </c>
       <c r="L21">
-        <v>1.005411273274027</v>
+        <v>1.0442137290366</v>
       </c>
       <c r="M21">
-        <v>1.016731682747876</v>
+        <v>1.06291288866304</v>
       </c>
       <c r="N21">
-        <v>1.006427696289654</v>
+        <v>1.020064183021091</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9744585026356849</v>
+        <v>1.041539930936116</v>
       </c>
       <c r="D22">
-        <v>0.9921303802173213</v>
+        <v>1.051383332671253</v>
       </c>
       <c r="E22">
-        <v>0.9857814921289985</v>
+        <v>1.039853392222021</v>
       </c>
       <c r="F22">
-        <v>0.9965329541866758</v>
+        <v>1.058480603516888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040970911446625</v>
+        <v>1.040354532051892</v>
       </c>
       <c r="J22">
-        <v>1.006362161636623</v>
+        <v>1.048328303765421</v>
       </c>
       <c r="K22">
-        <v>1.007859364618596</v>
+        <v>1.055033962048308</v>
       </c>
       <c r="L22">
-        <v>1.001639982485589</v>
+        <v>1.043547679804787</v>
       </c>
       <c r="M22">
-        <v>1.012173408242675</v>
+        <v>1.062104882270888</v>
       </c>
       <c r="N22">
-        <v>1.005065529298661</v>
+        <v>1.019831544144073</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9773859991521182</v>
+        <v>1.042033749597618</v>
       </c>
       <c r="D23">
-        <v>0.9947958473688452</v>
+        <v>1.051854646894611</v>
       </c>
       <c r="E23">
-        <v>0.9881604581457739</v>
+        <v>1.040276172385839</v>
       </c>
       <c r="F23">
-        <v>0.9993335155242926</v>
+        <v>1.058977483379598</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04197414833696</v>
+        <v>1.040478101614547</v>
       </c>
       <c r="J23">
-        <v>1.008466727678793</v>
+        <v>1.048690255761387</v>
       </c>
       <c r="K23">
-        <v>1.010155889129066</v>
+        <v>1.055436407554654</v>
       </c>
       <c r="L23">
-        <v>1.003651819380109</v>
+        <v>1.043900875032743</v>
       </c>
       <c r="M23">
-        <v>1.014605069248466</v>
+        <v>1.062533342363036</v>
       </c>
       <c r="N23">
-        <v>1.005792324651076</v>
+        <v>1.019954935681392</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9885154547975938</v>
+        <v>1.043975686585164</v>
       </c>
       <c r="D24">
-        <v>1.004946889959356</v>
+        <v>1.05370867682445</v>
       </c>
       <c r="E24">
-        <v>0.9972267917827505</v>
+        <v>1.041939485920479</v>
       </c>
       <c r="F24">
-        <v>1.009998984131741</v>
+        <v>1.06093219400596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045756112198041</v>
+        <v>1.040959556870666</v>
       </c>
       <c r="J24">
-        <v>1.016462874454357</v>
+        <v>1.050112076767289</v>
       </c>
       <c r="K24">
-        <v>1.018887686049578</v>
+        <v>1.057018082371449</v>
       </c>
       <c r="L24">
-        <v>1.011302783722481</v>
+        <v>1.045288950573454</v>
       </c>
       <c r="M24">
-        <v>1.023852752637205</v>
+        <v>1.0642174958122</v>
       </c>
       <c r="N24">
-        <v>1.008553369669991</v>
+        <v>1.020439274978078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000701282354123</v>
+        <v>1.046224845225369</v>
       </c>
       <c r="D25">
-        <v>1.016093497554287</v>
+        <v>1.055857223051351</v>
       </c>
       <c r="E25">
-        <v>1.007193865632752</v>
+        <v>1.043867432866914</v>
       </c>
       <c r="F25">
-        <v>1.021710662265696</v>
+        <v>1.063197648645275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049828854069782</v>
+        <v>1.041507890492645</v>
       </c>
       <c r="J25">
-        <v>1.025205068577334</v>
+        <v>1.051755607385358</v>
       </c>
       <c r="K25">
-        <v>1.02844701597241</v>
+        <v>1.0588480241907</v>
       </c>
       <c r="L25">
-        <v>1.019681523198584</v>
+        <v>1.046894822487582</v>
       </c>
       <c r="M25">
-        <v>1.033981043906081</v>
+        <v>1.066166493106689</v>
       </c>
       <c r="N25">
-        <v>1.011570629256197</v>
+        <v>1.020998372547424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048015423470132</v>
+        <v>1.009910183086256</v>
       </c>
       <c r="D2">
-        <v>1.057568649418278</v>
+        <v>1.024539292002109</v>
       </c>
       <c r="E2">
-        <v>1.045403463593746</v>
+        <v>1.014753943798413</v>
       </c>
       <c r="F2">
-        <v>1.065002389984858</v>
+        <v>1.030585040807424</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041936920771309</v>
+        <v>1.052849331891835</v>
       </c>
       <c r="J2">
-        <v>1.0530614208751</v>
+        <v>1.031798469307149</v>
       </c>
       <c r="K2">
-        <v>1.060303261787828</v>
+        <v>1.03566702207254</v>
       </c>
       <c r="L2">
-        <v>1.048171800965032</v>
+        <v>1.02601148929942</v>
       </c>
       <c r="M2">
-        <v>1.067716804637489</v>
+        <v>1.04163410787882</v>
       </c>
       <c r="N2">
-        <v>1.021441961726428</v>
+        <v>1.013844554974045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049313685056023</v>
+        <v>1.016333640140861</v>
       </c>
       <c r="D3">
-        <v>1.058810059735478</v>
+        <v>1.030441880016516</v>
       </c>
       <c r="E3">
-        <v>1.04651783024909</v>
+        <v>1.020041636825482</v>
       </c>
       <c r="F3">
-        <v>1.066311600093681</v>
+        <v>1.036787527378726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042243630574246</v>
+        <v>1.054921755832411</v>
       </c>
       <c r="J3">
-        <v>1.054006676621121</v>
+        <v>1.036388725125104</v>
       </c>
       <c r="K3">
-        <v>1.061357448459393</v>
+        <v>1.040699522079774</v>
       </c>
       <c r="L3">
-        <v>1.049096812363054</v>
+        <v>1.0304243457809</v>
       </c>
       <c r="M3">
-        <v>1.068840093995745</v>
+        <v>1.046970385832205</v>
       </c>
       <c r="N3">
-        <v>1.021762703747757</v>
+        <v>1.015426384273413</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050152914912211</v>
+        <v>1.020377955996933</v>
       </c>
       <c r="D4">
-        <v>1.059612784708318</v>
+        <v>1.034163111362515</v>
       </c>
       <c r="E4">
-        <v>1.047238488577917</v>
+        <v>1.023376963880086</v>
       </c>
       <c r="F4">
-        <v>1.067158218374367</v>
+        <v>1.040698034894722</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042439875891033</v>
+        <v>1.056210241871202</v>
       </c>
       <c r="J4">
-        <v>1.054617005341316</v>
+        <v>1.039274375310064</v>
       </c>
       <c r="K4">
-        <v>1.062038466008293</v>
+        <v>1.043865986764237</v>
       </c>
       <c r="L4">
-        <v>1.049694360622176</v>
+        <v>1.033201204608194</v>
       </c>
       <c r="M4">
-        <v>1.069565859417402</v>
+        <v>1.05032888276221</v>
       </c>
       <c r="N4">
-        <v>1.021969629437224</v>
+        <v>1.016420133374171</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05050553150476</v>
+        <v>1.022052661513126</v>
       </c>
       <c r="D5">
-        <v>1.059950121334191</v>
+        <v>1.035705141061992</v>
       </c>
       <c r="E5">
-        <v>1.047541357146119</v>
+        <v>1.024759479048255</v>
       </c>
       <c r="F5">
-        <v>1.067514013297792</v>
+        <v>1.042318553221125</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042521847636005</v>
+        <v>1.056739805741991</v>
       </c>
       <c r="J5">
-        <v>1.05487327507446</v>
+        <v>1.040468169709834</v>
       </c>
       <c r="K5">
-        <v>1.062324502186465</v>
+        <v>1.045176629546019</v>
       </c>
       <c r="L5">
-        <v>1.049945333618794</v>
+        <v>1.034350641618011</v>
       </c>
       <c r="M5">
-        <v>1.069870715846305</v>
+        <v>1.051719225518243</v>
       </c>
       <c r="N5">
-        <v>1.022056474282534</v>
+        <v>1.016831076662269</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050564726013959</v>
+        <v>1.022332391469699</v>
       </c>
       <c r="D6">
-        <v>1.06000675415845</v>
+        <v>1.035962773539106</v>
       </c>
       <c r="E6">
-        <v>1.047592204537167</v>
+        <v>1.024990483745636</v>
       </c>
       <c r="F6">
-        <v>1.067573745683031</v>
+        <v>1.042589302459585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04253558000975</v>
+        <v>1.056828024009594</v>
       </c>
       <c r="J6">
-        <v>1.054916285635223</v>
+        <v>1.040667504572274</v>
       </c>
       <c r="K6">
-        <v>1.062372513535571</v>
+        <v>1.045395515101667</v>
       </c>
       <c r="L6">
-        <v>1.049987459295116</v>
+        <v>1.034542607928565</v>
       </c>
       <c r="M6">
-        <v>1.069921887686152</v>
+        <v>1.051951434146948</v>
       </c>
       <c r="N6">
-        <v>1.022071047331631</v>
+        <v>1.016899683877397</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050157627356652</v>
+        <v>1.020400432126968</v>
       </c>
       <c r="D7">
-        <v>1.059617292720002</v>
+        <v>1.034183802540265</v>
       </c>
       <c r="E7">
-        <v>1.047242535897678</v>
+        <v>1.023395513116742</v>
       </c>
       <c r="F7">
-        <v>1.067162973004654</v>
+        <v>1.040719779019878</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042440973282186</v>
+        <v>1.056217364957126</v>
       </c>
       <c r="J7">
-        <v>1.054620430854901</v>
+        <v>1.039290401659865</v>
       </c>
       <c r="K7">
-        <v>1.062042289070323</v>
+        <v>1.043883579092579</v>
       </c>
       <c r="L7">
-        <v>1.049697715061455</v>
+        <v>1.033216632908493</v>
       </c>
       <c r="M7">
-        <v>1.069569933923961</v>
+        <v>1.050347544024705</v>
       </c>
       <c r="N7">
-        <v>1.021970790437895</v>
+        <v>1.016425650863114</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04845435153142</v>
+        <v>1.012105049089988</v>
       </c>
       <c r="D8">
-        <v>1.057988305549838</v>
+        <v>1.026555118672274</v>
       </c>
       <c r="E8">
-        <v>1.045780155596787</v>
+        <v>1.016559392506154</v>
       </c>
       <c r="F8">
-        <v>1.065444954880919</v>
+        <v>1.0327032470377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042041034217436</v>
+        <v>1.053560875016977</v>
       </c>
       <c r="J8">
-        <v>1.05338114816463</v>
+        <v>1.033367843411738</v>
       </c>
       <c r="K8">
-        <v>1.060659760836748</v>
+        <v>1.037387008085783</v>
       </c>
       <c r="L8">
-        <v>1.048484620415437</v>
+        <v>1.027519632556059</v>
       </c>
       <c r="M8">
-        <v>1.068096650352124</v>
+        <v>1.04345772970922</v>
       </c>
       <c r="N8">
-        <v>1.021550485944116</v>
+        <v>1.014385502915012</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045446426628395</v>
+        <v>0.9965647439563698</v>
       </c>
       <c r="D9">
-        <v>1.05511347761806</v>
+        <v>1.012305975475039</v>
       </c>
       <c r="E9">
-        <v>1.043199999902101</v>
+        <v>1.003805787785071</v>
       </c>
       <c r="F9">
-        <v>1.062413404458105</v>
+        <v>1.017731083582539</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041319277211515</v>
+        <v>1.048455273218135</v>
       </c>
       <c r="J9">
-        <v>1.051187197005056</v>
+        <v>1.022239395907035</v>
       </c>
       <c r="K9">
-        <v>1.05821494000093</v>
+        <v>1.025202502822108</v>
       </c>
       <c r="L9">
-        <v>1.046339267865984</v>
+        <v>1.016837419045195</v>
       </c>
       <c r="M9">
-        <v>1.065492159221481</v>
+        <v>1.030542890498436</v>
       </c>
       <c r="N9">
-        <v>1.020805106532351</v>
+        <v>1.010547296860215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043436520855155</v>
+        <v>0.9854846029536459</v>
       </c>
       <c r="D10">
-        <v>1.05319382259821</v>
+        <v>1.002179710898141</v>
       </c>
       <c r="E10">
-        <v>1.0414775597912</v>
+        <v>0.9947543058922789</v>
       </c>
       <c r="F10">
-        <v>1.060389363028451</v>
+        <v>1.007091571409138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040826611915677</v>
+        <v>1.044731548590874</v>
       </c>
       <c r="J10">
-        <v>1.049717570127654</v>
+        <v>1.014286202779877</v>
       </c>
       <c r="K10">
-        <v>1.056579093869964</v>
+        <v>1.016509721201337</v>
       </c>
       <c r="L10">
-        <v>1.044903701172663</v>
+        <v>1.009218923319682</v>
       </c>
       <c r="M10">
-        <v>1.063750026184927</v>
+        <v>1.021333955043144</v>
       </c>
       <c r="N10">
-        <v>1.02030494731332</v>
+        <v>1.007801853425564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042565061419853</v>
+        <v>0.9804905461688682</v>
       </c>
       <c r="D11">
-        <v>1.052361813343167</v>
+        <v>0.9976246467774487</v>
       </c>
       <c r="E11">
-        <v>1.040731136272077</v>
+        <v>0.9906859662107371</v>
       </c>
       <c r="F11">
-        <v>1.059512172916582</v>
+        <v>1.002305674417607</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040610543277962</v>
+        <v>1.0430344097941</v>
       </c>
       <c r="J11">
-        <v>1.049079512558034</v>
+        <v>1.010698082677369</v>
       </c>
       <c r="K11">
-        <v>1.055869302210121</v>
+        <v>1.012591498239213</v>
       </c>
       <c r="L11">
-        <v>1.044280788876923</v>
+        <v>1.005785695397215</v>
       </c>
       <c r="M11">
-        <v>1.062994246877359</v>
+        <v>1.01718423969396</v>
       </c>
       <c r="N11">
-        <v>1.020087593790648</v>
+        <v>1.006562875955431</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042241184209951</v>
+        <v>0.9786035805211468</v>
       </c>
       <c r="D12">
-        <v>1.05205264630125</v>
+        <v>0.9959050216571186</v>
       </c>
       <c r="E12">
-        <v>1.040453788850962</v>
+        <v>0.9891506178800938</v>
       </c>
       <c r="F12">
-        <v>1.059186226309634</v>
+        <v>1.000498902404029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040529872713435</v>
+        <v>1.042390434444548</v>
       </c>
       <c r="J12">
-        <v>1.048842251185383</v>
+        <v>1.009341914569684</v>
       </c>
       <c r="K12">
-        <v>1.055605431393658</v>
+        <v>1.011111097762436</v>
       </c>
       <c r="L12">
-        <v>1.044049213029625</v>
+        <v>1.004488669133804</v>
       </c>
       <c r="M12">
-        <v>1.062713299309183</v>
+        <v>1.015616550469037</v>
       </c>
       <c r="N12">
-        <v>1.020006740675637</v>
+        <v>1.00609455641912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042310665116077</v>
+        <v>0.9790098294692129</v>
       </c>
       <c r="D13">
-        <v>1.052118969250421</v>
+        <v>0.9962751752456753</v>
       </c>
       <c r="E13">
-        <v>1.040513285048304</v>
+        <v>0.9894810808835536</v>
       </c>
       <c r="F13">
-        <v>1.059256148418232</v>
+        <v>1.000887814865361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040547195534262</v>
+        <v>1.042529198673779</v>
       </c>
       <c r="J13">
-        <v>1.048893156296928</v>
+        <v>1.009633904551448</v>
       </c>
       <c r="K13">
-        <v>1.05566204270575</v>
+        <v>1.011429811562503</v>
       </c>
       <c r="L13">
-        <v>1.044098895862161</v>
+        <v>1.004767898303687</v>
       </c>
       <c r="M13">
-        <v>1.062773573414438</v>
+        <v>1.015954048672684</v>
       </c>
       <c r="N13">
-        <v>1.020024089313857</v>
+        <v>1.00619538928473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042538293293849</v>
+        <v>0.9803352360073881</v>
       </c>
       <c r="D14">
-        <v>1.052336260004254</v>
+        <v>0.9974830793815616</v>
       </c>
       <c r="E14">
-        <v>1.040708212552029</v>
+        <v>0.9905595583496934</v>
       </c>
       <c r="F14">
-        <v>1.059485232521713</v>
+        <v>1.00215693280639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040603883457062</v>
+        <v>1.042981460924179</v>
       </c>
       <c r="J14">
-        <v>1.049059905747654</v>
+        <v>1.010586468832348</v>
       </c>
       <c r="K14">
-        <v>1.055847495126178</v>
+        <v>1.012469649147527</v>
       </c>
       <c r="L14">
-        <v>1.044261650810504</v>
+        <v>1.005678936746369</v>
       </c>
       <c r="M14">
-        <v>1.062971028120706</v>
+        <v>1.01705520247501</v>
       </c>
       <c r="N14">
-        <v>1.0200809128666</v>
+        <v>1.006524333433536</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042678518753943</v>
+        <v>0.9811475506048716</v>
       </c>
       <c r="D15">
-        <v>1.052470123764449</v>
+        <v>0.9982235760430331</v>
       </c>
       <c r="E15">
-        <v>1.040828301473987</v>
+        <v>0.991220781782882</v>
       </c>
       <c r="F15">
-        <v>1.059626362892819</v>
+        <v>1.002934955462951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040638755987686</v>
+        <v>1.043258287768064</v>
       </c>
       <c r="J15">
-        <v>1.049162611257623</v>
+        <v>1.011170223050219</v>
       </c>
       <c r="K15">
-        <v>1.055961728888018</v>
+        <v>1.013106956654897</v>
       </c>
       <c r="L15">
-        <v>1.044361903120169</v>
+        <v>1.006237322131838</v>
       </c>
       <c r="M15">
-        <v>1.063092657558078</v>
+        <v>1.017730113165606</v>
       </c>
       <c r="N15">
-        <v>1.020115908022937</v>
+        <v>1.006725914290052</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043494331983817</v>
+        <v>0.9858117027258164</v>
       </c>
       <c r="D16">
-        <v>1.05324902343968</v>
+        <v>1.002478254388494</v>
       </c>
       <c r="E16">
-        <v>1.041527084657031</v>
+        <v>0.9950210198020156</v>
       </c>
       <c r="F16">
-        <v>1.06044756275586</v>
+        <v>1.007405244002933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040840893821058</v>
+        <v>1.044842326160221</v>
       </c>
       <c r="J16">
-        <v>1.049759879841278</v>
+        <v>1.014521152978215</v>
       </c>
       <c r="K16">
-        <v>1.056626169372291</v>
+        <v>1.016766360248338</v>
       </c>
       <c r="L16">
-        <v>1.044945014130006</v>
+        <v>1.009443812966226</v>
       </c>
       <c r="M16">
-        <v>1.063800154462949</v>
+        <v>1.02160578066231</v>
       </c>
       <c r="N16">
-        <v>1.020319355808283</v>
+        <v>1.007882975849678</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044005757109616</v>
+        <v>0.9886831984808939</v>
       </c>
       <c r="D17">
-        <v>1.053737393614402</v>
+        <v>1.005100101102953</v>
       </c>
       <c r="E17">
-        <v>1.04196525131142</v>
+        <v>0.9973637083647796</v>
       </c>
       <c r="F17">
-        <v>1.060962471664181</v>
+        <v>1.010159959892982</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04096695477242</v>
+        <v>1.045812691670629</v>
       </c>
       <c r="J17">
-        <v>1.050134073503079</v>
+        <v>1.016583320199106</v>
       </c>
       <c r="K17">
-        <v>1.05704256225098</v>
+        <v>1.019019294123255</v>
       </c>
       <c r="L17">
-        <v>1.045310433583154</v>
+        <v>1.011418119757902</v>
       </c>
       <c r="M17">
-        <v>1.064243564807592</v>
+        <v>1.023992162830988</v>
       </c>
       <c r="N17">
-        <v>1.020446763382046</v>
+        <v>1.008594952305573</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044303951411756</v>
+        <v>0.9903393351186689</v>
       </c>
       <c r="D18">
-        <v>1.054022176091502</v>
+        <v>1.006613098262169</v>
       </c>
       <c r="E18">
-        <v>1.042220769248088</v>
+        <v>0.9987159154100174</v>
       </c>
       <c r="F18">
-        <v>1.061262735600708</v>
+        <v>1.011749636629993</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041040219577958</v>
+        <v>1.046370575329161</v>
       </c>
       <c r="J18">
-        <v>1.05035217057334</v>
+        <v>1.017772345197423</v>
       </c>
       <c r="K18">
-        <v>1.057285296579102</v>
+        <v>1.020318649089249</v>
       </c>
       <c r="L18">
-        <v>1.045523451092435</v>
+        <v>1.012556850699494</v>
       </c>
       <c r="M18">
-        <v>1.064502061384032</v>
+        <v>1.025368591971164</v>
       </c>
       <c r="N18">
-        <v>1.020521002747647</v>
+        <v>1.009005435831205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044405609217629</v>
+        <v>0.9909009235207245</v>
       </c>
       <c r="D19">
-        <v>1.05411926684693</v>
+        <v>1.007126289105723</v>
       </c>
       <c r="E19">
-        <v>1.042307884639445</v>
+        <v>0.9991746186883064</v>
       </c>
       <c r="F19">
-        <v>1.061365105457902</v>
+        <v>1.012288837276896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041065156169903</v>
+        <v>1.046559447293092</v>
       </c>
       <c r="J19">
-        <v>1.050426508353206</v>
+        <v>1.018175479401719</v>
       </c>
       <c r="K19">
-        <v>1.057368038964752</v>
+        <v>1.020759247265672</v>
       </c>
       <c r="L19">
-        <v>1.045596063359714</v>
+        <v>1.012942994494948</v>
       </c>
       <c r="M19">
-        <v>1.064590178874484</v>
+        <v>1.025835343763489</v>
       </c>
       <c r="N19">
-        <v>1.020546303706603</v>
+        <v>1.009144602166496</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043950897582531</v>
+        <v>0.9883770713280612</v>
       </c>
       <c r="D20">
-        <v>1.053685003962379</v>
+        <v>1.004820500173421</v>
       </c>
       <c r="E20">
-        <v>1.041918246121736</v>
+        <v>0.9971138457294861</v>
       </c>
       <c r="F20">
-        <v>1.060907234466237</v>
+        <v>1.009866189038891</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040953456984218</v>
+        <v>1.045709425771203</v>
       </c>
       <c r="J20">
-        <v>1.050093943026393</v>
+        <v>1.016363508466664</v>
       </c>
       <c r="K20">
-        <v>1.056997901803204</v>
+        <v>1.018779113206336</v>
       </c>
       <c r="L20">
-        <v>1.045271240533974</v>
+        <v>1.011207635239503</v>
       </c>
       <c r="M20">
-        <v>1.06419600528938</v>
+        <v>1.023737743890677</v>
       </c>
       <c r="N20">
-        <v>1.020433101552833</v>
+        <v>1.008519064399594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042471267429663</v>
+        <v>0.9799458399774358</v>
       </c>
       <c r="D21">
-        <v>1.052272276683894</v>
+        <v>0.9971281634720215</v>
       </c>
       <c r="E21">
-        <v>1.04065081383814</v>
+        <v>0.9902426567341087</v>
       </c>
       <c r="F21">
-        <v>1.059417776283679</v>
+        <v>1.001784030732177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040587201688674</v>
+        <v>1.042848663212781</v>
       </c>
       <c r="J21">
-        <v>1.049010809347832</v>
+        <v>1.010306622378665</v>
       </c>
       <c r="K21">
-        <v>1.055792890182</v>
+        <v>1.012164148704276</v>
       </c>
       <c r="L21">
-        <v>1.0442137290366</v>
+        <v>1.005411273274026</v>
       </c>
       <c r="M21">
-        <v>1.06291288866304</v>
+        <v>1.016731682747876</v>
       </c>
       <c r="N21">
-        <v>1.020064183021091</v>
+        <v>1.006427696289654</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041539930936116</v>
+        <v>0.9744585026356845</v>
       </c>
       <c r="D22">
-        <v>1.051383332671253</v>
+        <v>0.9921303802173207</v>
       </c>
       <c r="E22">
-        <v>1.039853392222021</v>
+        <v>0.9857814921289977</v>
       </c>
       <c r="F22">
-        <v>1.058480603516888</v>
+        <v>0.9965329541866751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040354532051892</v>
+        <v>1.040970911446625</v>
       </c>
       <c r="J22">
-        <v>1.048328303765421</v>
+        <v>1.006362161636622</v>
       </c>
       <c r="K22">
-        <v>1.055033962048308</v>
+        <v>1.007859364618596</v>
       </c>
       <c r="L22">
-        <v>1.043547679804787</v>
+        <v>1.001639982485589</v>
       </c>
       <c r="M22">
-        <v>1.062104882270888</v>
+        <v>1.012173408242674</v>
       </c>
       <c r="N22">
-        <v>1.019831544144073</v>
+        <v>1.005065529298661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042033749597618</v>
+        <v>0.9773859991521192</v>
       </c>
       <c r="D23">
-        <v>1.051854646894611</v>
+        <v>0.994795847368846</v>
       </c>
       <c r="E23">
-        <v>1.040276172385839</v>
+        <v>0.9881604581457748</v>
       </c>
       <c r="F23">
-        <v>1.058977483379598</v>
+        <v>0.9993335155242934</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040478101614547</v>
+        <v>1.04197414833696</v>
       </c>
       <c r="J23">
-        <v>1.048690255761387</v>
+        <v>1.008466727678794</v>
       </c>
       <c r="K23">
-        <v>1.055436407554654</v>
+        <v>1.010155889129067</v>
       </c>
       <c r="L23">
-        <v>1.043900875032743</v>
+        <v>1.00365181938011</v>
       </c>
       <c r="M23">
-        <v>1.062533342363036</v>
+        <v>1.014605069248467</v>
       </c>
       <c r="N23">
-        <v>1.019954935681392</v>
+        <v>1.005792324651076</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043975686585164</v>
+        <v>0.9885154547975941</v>
       </c>
       <c r="D24">
-        <v>1.05370867682445</v>
+        <v>1.004946889959356</v>
       </c>
       <c r="E24">
-        <v>1.041939485920479</v>
+        <v>0.9972267917827508</v>
       </c>
       <c r="F24">
-        <v>1.06093219400596</v>
+        <v>1.009998984131741</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040959556870666</v>
+        <v>1.045756112198042</v>
       </c>
       <c r="J24">
-        <v>1.050112076767289</v>
+        <v>1.016462874454357</v>
       </c>
       <c r="K24">
-        <v>1.057018082371449</v>
+        <v>1.018887686049578</v>
       </c>
       <c r="L24">
-        <v>1.045288950573454</v>
+        <v>1.011302783722481</v>
       </c>
       <c r="M24">
-        <v>1.0642174958122</v>
+        <v>1.023852752637205</v>
       </c>
       <c r="N24">
-        <v>1.020439274978078</v>
+        <v>1.008553369669991</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046224845225369</v>
+        <v>1.000701282354123</v>
       </c>
       <c r="D25">
-        <v>1.055857223051351</v>
+        <v>1.016093497554286</v>
       </c>
       <c r="E25">
-        <v>1.043867432866914</v>
+        <v>1.007193865632751</v>
       </c>
       <c r="F25">
-        <v>1.063197648645275</v>
+        <v>1.021710662265695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041507890492645</v>
+        <v>1.049828854069781</v>
       </c>
       <c r="J25">
-        <v>1.051755607385358</v>
+        <v>1.025205068577333</v>
       </c>
       <c r="K25">
-        <v>1.0588480241907</v>
+        <v>1.02844701597241</v>
       </c>
       <c r="L25">
-        <v>1.046894822487582</v>
+        <v>1.019681523198583</v>
       </c>
       <c r="M25">
-        <v>1.066166493106689</v>
+        <v>1.033981043906081</v>
       </c>
       <c r="N25">
-        <v>1.020998372547424</v>
+        <v>1.011570629256197</v>
       </c>
     </row>
   </sheetData>
